--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0621547-8E51-5B4D-84AF-E10004A83CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9DC319-AFAB-2C44-B6B0-E248E8D49618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="TopBoard" sheetId="5" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,268 +1706,268 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>146</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2102,6 +2102,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2109,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB9D63C-6B1A-D341-8E32-18A078C7BF2C}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2726,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2779,13 +2780,13 @@
       <c r="D2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -2804,7 +2805,7 @@
       </c>
       <c r="D4">
         <f>J4-F4-$G$2*G4-H$2*H4-I$2*I4</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2831,7 +2832,7 @@
       </c>
       <c r="D5">
         <f>J5-F5-$G$2*G5-H$2*H5-I$2*I5</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2858,7 +2859,7 @@
       </c>
       <c r="D6">
         <f>J6-F6-$G$2*G6-H$2*H6-I$2*I6</f>
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -2885,7 +2886,7 @@
       </c>
       <c r="D7">
         <f>J7-F7-$G$2*G7-H$2*H7-I$2*I7</f>
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -2912,7 +2913,7 @@
       </c>
       <c r="D8">
         <f>J8-F8-$G$2*G8-H$2*H8-I$2*I8</f>
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -2948,7 +2949,7 @@
       </c>
       <c r="D11">
         <f>J11-F11-$G$2*G11-H$2*H11-I$2*I11</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -2972,7 +2973,7 @@
       </c>
       <c r="D12">
         <f>J12-F12-$G$2*G12-H$2*H12-I$2*I12</f>
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2999,7 +3000,7 @@
       </c>
       <c r="D13">
         <f>J13-F13-$G$2*G13-H$2*H13-I$2*I13</f>
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3026,7 +3027,7 @@
       </c>
       <c r="D14">
         <f>J14-F14-$G$2*G14-H$2*H14-I$2*I14</f>
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3062,7 +3063,7 @@
       </c>
       <c r="D17">
         <f>J17-F17-$G$2*G17-H$2*H17-I$2*I17</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3095,7 +3096,7 @@
       </c>
       <c r="D20">
         <f>J20-F20-$G$2*G20-H$2*H20-I$2*I20</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3149,7 +3150,7 @@
       </c>
       <c r="D22">
         <f>J22-F22-$G$2*G22-H$2*H22-I$2*I22</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -3179,7 +3180,7 @@
       </c>
       <c r="D23">
         <f>J23-F23-$G$2*G23-H$2*H23-I$2*I23</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -3212,7 +3213,7 @@
       </c>
       <c r="D26">
         <f t="shared" ref="D26:D32" si="0">J26-F26-$G$2*G26-H$2*H26-I$2*I26</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -3242,7 +3243,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -3272,7 +3273,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -3302,7 +3303,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -3332,7 +3333,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -3362,7 +3363,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -3392,7 +3393,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -3427,7 +3428,7 @@
       </c>
       <c r="D35">
         <f>J35-F35-$G$2*G35-H$2*H35-I$2*I35</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -3462,7 +3463,7 @@
       </c>
       <c r="D38">
         <f>J38-F38-$G$2*G38-H$2*H38-I$2*I38</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -3492,7 +3493,7 @@
       </c>
       <c r="D39">
         <f>J39-F39-$G$2*G39-H$2*H39-I$2*I39</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -3527,7 +3528,7 @@
       </c>
       <c r="D42">
         <f>J42-F42-$G$2*G42-H$2*H42-I$2*I42</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -3557,7 +3558,7 @@
       </c>
       <c r="D43">
         <f>J43-F43-$G$2*G43-H$2*H43-I$2*I43</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -3584,7 +3585,7 @@
       </c>
       <c r="D44">
         <f>J44-F44-$G$2*G44-H$2*H44-I$2*I44</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="D47">
         <f>J47-F47-$G$2*G47-H$2*H47-I$2*I47</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
@@ -3643,7 +3644,7 @@
       </c>
       <c r="D48">
         <f>J48-F48-$G$2*G48-H$2*H48-I$2*I48</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -3670,7 +3671,7 @@
       </c>
       <c r="D49">
         <f>J49-F49-$G$2*G49-H$2*H49-I$2*I49</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9DC319-AFAB-2C44-B6B0-E248E8D49618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA41FC4-C725-B14B-B7AE-E641AC42D4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="207">
   <si>
     <t>Part</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>SDM100K30L-7‎</t>
+  </si>
+  <si>
+    <t>Purchased</t>
   </si>
 </sst>
 </file>
@@ -2728,7 +2731,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2737,7 +2740,7 @@
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="5" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
@@ -2757,6 +2760,9 @@
       <c r="D1" s="7" t="s">
         <v>203</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="F1" s="7" t="s">
         <v>202</v>
       </c>
@@ -2778,6 +2784,7 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="6">
         <v>2</v>
@@ -2804,8 +2811,11 @@
         <v>82</v>
       </c>
       <c r="D4">
-        <f>J4-F4-$G$2*G4-H$2*H4-I$2*I4</f>
+        <f>J4-F4-$G$2*G4-H$2*H4-I$2*I4+E4</f>
         <v>89</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2831,8 +2841,11 @@
         <v>82</v>
       </c>
       <c r="D5">
-        <f>J5-F5-$G$2*G5-H$2*H5-I$2*I5</f>
-        <v>-6</v>
+        <f t="shared" ref="D5:D8" si="0">J5-F5-$G$2*G5-H$2*H5-I$2*I5+E5</f>
+        <v>94</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2858,8 +2871,11 @@
         <v>82</v>
       </c>
       <c r="D6">
-        <f>J6-F6-$G$2*G6-H$2*H6-I$2*I6</f>
+        <f t="shared" si="0"/>
         <v>929</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -2885,8 +2901,11 @@
         <v>82</v>
       </c>
       <c r="D7">
-        <f>J7-F7-$G$2*G7-H$2*H7-I$2*I7</f>
+        <f t="shared" si="0"/>
         <v>455</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -2912,8 +2931,11 @@
         <v>82</v>
       </c>
       <c r="D8">
-        <f>J8-F8-$G$2*G8-H$2*H8-I$2*I8</f>
+        <f t="shared" si="0"/>
         <v>440</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -2948,8 +2970,11 @@
         <v>82</v>
       </c>
       <c r="D11">
-        <f>J11-F11-$G$2*G11-H$2*H11-I$2*I11</f>
+        <f>J11-F11-$G$2*G11-H$2*H11-I$2*I11+E11</f>
         <v>108</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -2972,8 +2997,11 @@
         <v>82</v>
       </c>
       <c r="D12">
-        <f>J12-F12-$G$2*G12-H$2*H12-I$2*I12</f>
+        <f t="shared" ref="D12:D14" si="1">J12-F12-$G$2*G12-H$2*H12-I$2*I12+E12</f>
         <v>932</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2999,8 +3027,11 @@
         <v>82</v>
       </c>
       <c r="D13">
-        <f>J13-F13-$G$2*G13-H$2*H13-I$2*I13</f>
+        <f t="shared" si="1"/>
         <v>921</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3026,8 +3057,11 @@
         <v>82</v>
       </c>
       <c r="D14">
-        <f>J14-F14-$G$2*G14-H$2*H14-I$2*I14</f>
+        <f t="shared" si="1"/>
         <v>954</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3062,8 +3096,11 @@
         <v>204</v>
       </c>
       <c r="D17">
-        <f>J17-F17-$G$2*G17-H$2*H17-I$2*I17</f>
-        <v>-2</v>
+        <f>J17-F17-$G$2*G17-H$2*H17-I$2*I17+E17</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3095,8 +3132,11 @@
         <v>82</v>
       </c>
       <c r="D20">
-        <f>J20-F20-$G$2*G20-H$2*H20-I$2*I20</f>
+        <f>J20-F20-$G$2*G20-H$2*H20-I$2*I20+E20</f>
         <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3122,8 +3162,11 @@
         <v>82</v>
       </c>
       <c r="D21">
-        <f>J21-F21-$G$2*G21-H$2*H21-I$2*I21</f>
+        <f t="shared" ref="D21:D23" si="2">J21-F21-$G$2*G21-H$2*H21-I$2*I21+E21</f>
         <v>28</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -3149,8 +3192,11 @@
         <v>82</v>
       </c>
       <c r="D22">
-        <f>J22-F22-$G$2*G22-H$2*H22-I$2*I22</f>
+        <f t="shared" si="2"/>
         <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -3179,8 +3225,11 @@
         <v>205</v>
       </c>
       <c r="D23">
-        <f>J23-F23-$G$2*G23-H$2*H23-I$2*I23</f>
-        <v>-2</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -3212,8 +3261,11 @@
         <v>89</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D32" si="0">J26-F26-$G$2*G26-H$2*H26-I$2*I26</f>
+        <f>J26-F26-$G$2*G26-H$2*H26-I$2*I26+E26</f>
         <v>7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -3242,8 +3294,11 @@
         <v>91</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D27:D32" si="3">J27-F27-$G$2*G27-H$2*H27-I$2*I27+E27</f>
         <v>7</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -3272,8 +3327,11 @@
         <v>92</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -3302,8 +3360,11 @@
         <v>152</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -3332,8 +3393,11 @@
         <v>94</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -3362,8 +3426,11 @@
         <v>125</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -3392,8 +3459,11 @@
         <v>123</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -3427,8 +3497,11 @@
         <v>35</v>
       </c>
       <c r="D35">
-        <f>J35-F35-$G$2*G35-H$2*H35-I$2*I35</f>
+        <f>J35-F35-$G$2*G35-H$2*H35-I$2*I35+E35</f>
         <v>11</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -3462,8 +3535,11 @@
         <v>103</v>
       </c>
       <c r="D38">
-        <f>J38-F38-$G$2*G38-H$2*H38-I$2*I38</f>
+        <f>J38-F38-$G$2*G38-H$2*H38-I$2*I38+E38</f>
         <v>4</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -3492,8 +3568,11 @@
         <v>104</v>
       </c>
       <c r="D39">
-        <f>J39-F39-$G$2*G39-H$2*H39-I$2*I39</f>
+        <f t="shared" ref="D39:D49" si="4">J39-F39-$G$2*G39-H$2*H39-I$2*I39+E39</f>
         <v>6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -3527,8 +3606,11 @@
         <v>109</v>
       </c>
       <c r="D42">
-        <f>J42-F42-$G$2*G42-H$2*H42-I$2*I42</f>
+        <f t="shared" si="4"/>
         <v>3</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -3557,8 +3639,11 @@
         <v>111</v>
       </c>
       <c r="D43">
-        <f>J43-F43-$G$2*G43-H$2*H43-I$2*I43</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E43" s="6">
+        <v>10</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -3584,8 +3669,11 @@
         <v>137</v>
       </c>
       <c r="D44">
-        <f>J44-F44-$G$2*G44-H$2*H44-I$2*I44</f>
-        <v>-3</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E44" s="6">
+        <v>10</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -3616,8 +3704,11 @@
         <v>186</v>
       </c>
       <c r="D47">
-        <f>J47-F47-$G$2*G47-H$2*H47-I$2*I47</f>
+        <f t="shared" si="4"/>
         <v>18</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
@@ -3643,8 +3734,11 @@
         <v>189</v>
       </c>
       <c r="D48">
-        <f>J48-F48-$G$2*G48-H$2*H48-I$2*I48</f>
+        <f t="shared" si="4"/>
         <v>6</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -3670,8 +3764,11 @@
         <v>192</v>
       </c>
       <c r="D49">
-        <f>J49-F49-$G$2*G49-H$2*H49-I$2*I49</f>
+        <f t="shared" si="4"/>
         <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA41FC4-C725-B14B-B7AE-E641AC42D4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DE213A-5F52-B849-B238-D9E266B3CAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="208">
   <si>
     <t>Part</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>Purchased</t>
+  </si>
+  <si>
+    <t>﻿CP2102N</t>
   </si>
 </sst>
 </file>
@@ -2730,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3390,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DE213A-5F52-B849-B238-D9E266B3CAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F49D290-A0EB-E041-AC15-E6D702EAA970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2790,10 +2790,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D4">
         <f>J4-F4-$G$2*G4-H$2*H4-I$2*I4+E4</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D8" si="0">J5-F5-$G$2*G5-H$2*H5-I$2*I5+E5</f>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E5" s="6">
         <v>100</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="D11">
         <f>J11-F11-$G$2*G11-H$2*H11-I$2*I11+E11</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D14" si="1">J12-F12-$G$2*G12-H$2*H12-I$2*I12+E12</f>
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D17">
         <f>J17-F17-$G$2*G17-H$2*H17-I$2*I17+E17</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D20">
         <f>J20-F20-$G$2*G20-H$2*H20-I$2*I20+E20</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="6">
         <v>10</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="D26">
         <f>J26-F26-$G$2*G26-H$2*H26-I$2*I26+E26</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D27">
         <f t="shared" ref="D27:D32" si="3">J27-F27-$G$2*G27-H$2*H27-I$2*I27+E27</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6">
         <v>5</v>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D35">
         <f>J35-F35-$G$2*G35-H$2*H35-I$2*I35+E35</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="D38">
         <f>J38-F38-$G$2*G38-H$2*H38-I$2*I38+E38</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D39">
         <f t="shared" ref="D39:D49" si="4">J39-F39-$G$2*G39-H$2*H39-I$2*I39+E39</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E43" s="6">
         <v>10</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E44" s="6">
         <v>10</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F49D290-A0EB-E041-AC15-E6D702EAA970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC392860-4C88-0646-BCEF-E8640476AFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="210">
   <si>
     <t>Part</t>
   </si>
@@ -699,13 +699,19 @@
   </si>
   <si>
     <t>﻿CP2102N</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>HobbyKing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -761,6 +767,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -813,7 +827,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,6 +842,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1425,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9AD7B-F263-A14F-B1B2-5A8DBADE0C7E}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="92" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2731,26 +2746,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -2758,361 +2773,362 @@
         <v>81</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="6">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>3</v>
       </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="D4">
-        <f>J4-F4-$G$2*G4-H$2*H4-I$2*I4+E4</f>
+      <c r="E4">
+        <f>K4-G4-$H$2*H4-I$2*I4-J$2*J4+F4</f>
         <v>87</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D8" si="0">J5-F5-$G$2*G5-H$2*H5-I$2*I5+E5</f>
+      <c r="E5">
+        <f t="shared" ref="E5:E8" si="0">K5-G5-$H$2*H5-I$2*I5-J$2*J5+F5</f>
         <v>88</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>917</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>5</v>
+      <c r="G6" s="6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>5</v>
+      <c r="G8" s="6">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="D11">
-        <f>J11-F11-$G$2*G11-H$2*H11-I$2*I11+E11</f>
+      <c r="E11">
+        <f>K11-G11-$H$2*H11-I$2*I11-J$2*J11+F11</f>
         <v>106</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="G11" s="6">
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D14" si="1">J12-F12-$G$2*G12-H$2*H12-I$2*I12+E12</f>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="1">K12-G12-$H$2*H12-I$2*I12-J$2*J12+F12</f>
         <v>924</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>940</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>909</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>3</v>
+      <c r="G13" s="6">
+        <v>0</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>948</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>960</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D17">
-        <f>J17-F17-$G$2*G17-H$2*H17-I$2*I17+E17</f>
+      <c r="E17">
+        <f>K17-G17-$H$2*H17-I$2*I17-J$2*J17+F17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <v>10</v>
       </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+      <c r="G17" s="6">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3120,61 +3136,63 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D20">
-        <f>J20-F20-$G$2*G20-H$2*H20-I$2*I20+E20</f>
+      <c r="C20" s="3"/>
+      <c r="E20">
+        <f>K20-G20-$H$2*H20-I$2*I20-J$2*J20+F20</f>
         <v>2</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
       <c r="F20" s="6">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>1</v>
+      <c r="G20" s="6">
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:D23" si="2">J21-F21-$G$2*G21-H$2*H21-I$2*I21+E21</f>
+      <c r="C21" s="3"/>
+      <c r="E21">
+        <f t="shared" ref="E21:E23" si="2">K21-G21-$H$2*H21-I$2*I21-J$2*J21+F21</f>
         <v>28</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21">
@@ -3184,64 +3202,66 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="3"/>
+      <c r="E22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>1</v>
+      <c r="G22" s="6">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <v>10</v>
       </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+      <c r="G23" s="6">
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3249,131 +3269,134 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>178</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D26">
-        <f>J26-F26-$G$2*G26-H$2*H26-I$2*I26+E26</f>
-        <v>5</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
+      <c r="C26" s="3"/>
+      <c r="E26">
+        <f>K26-G26-$H$2*H26-I$2*I26-J$2*J26+F26</f>
+        <v>5</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>1</v>
+      <c r="G26" s="6">
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="D27">
-        <f t="shared" ref="D27:D32" si="3">J27-F27-$G$2*G27-H$2*H27-I$2*I27+E27</f>
-        <v>5</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
+      <c r="E27">
+        <f t="shared" ref="E27:E32" si="3">K27-G27-$H$2*H27-I$2*I27-J$2*J27+F27</f>
+        <v>5</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
       </c>
-      <c r="G27">
-        <v>1</v>
+      <c r="G27" s="6">
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>1</v>
+      <c r="G28" s="6">
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>182</v>
       </c>
       <c r="B29" t="s">
         <v>153</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>152</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3384,471 +3407,481 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>207</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
       <c r="F30" s="6">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>1</v>
+      <c r="G30" s="6">
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" t="s">
         <v>125</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>123</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>100</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>35</v>
       </c>
-      <c r="D35">
-        <f>J35-F35-$G$2*G35-H$2*H35-I$2*I35+E35</f>
+      <c r="E35">
+        <f>K35-G35-$H$2*H35-I$2*I35-J$2*J35+F35</f>
         <v>9</v>
       </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>1</v>
+      <c r="G35" s="6">
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>102</v>
       </c>
       <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>103</v>
       </c>
-      <c r="D38">
-        <f>J38-F38-$G$2*G38-H$2*H38-I$2*I38+E38</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+      <c r="E38">
+        <f>K38-G38-$H$2*H38-I$2*I38-J$2*J38+F38</f>
+        <v>15</v>
+      </c>
+      <c r="F38" s="10">
+        <v>15</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>105</v>
       </c>
       <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>104</v>
       </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D49" si="4">J39-F39-$G$2*G39-H$2*H39-I$2*I39+E39</f>
-        <v>4</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
+      <c r="E39">
+        <f t="shared" ref="E39:E49" si="4">K39-G39-$H$2*H39-I$2*I39-J$2*J39+F39</f>
+        <v>14</v>
       </c>
       <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>107</v>
       </c>
       <c r="B42" t="s">
         <v>108</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
       <c r="F42" s="6">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>1</v>
+      <c r="G42" s="6">
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>180</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>111</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <v>10</v>
       </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>110</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>137</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <v>10</v>
       </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+      <c r="G44" s="6">
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>185</v>
       </c>
       <c r="B47" t="s">
         <v>186</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
       <c r="F47" s="6">
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>188</v>
       </c>
       <c r="C48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" t="s">
         <v>189</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
       <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="6">
         <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>191</v>
       </c>
       <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
         <v>192</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="6">
         <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>194</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>195</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>196</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>97</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>197</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>64</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>10</v>
       </c>
     </row>

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC392860-4C88-0646-BCEF-E8640476AFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71DBC65-CE42-5842-B64D-82F95DB03369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="TopBoard" sheetId="5" r:id="rId1"/>
@@ -671,9 +671,6 @@
     <t>Op Amp</t>
   </si>
   <si>
-    <t>qty as of 10/11/19</t>
-  </si>
-  <si>
     <t>Feathers Made</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>HobbyKing</t>
+  </si>
+  <si>
+    <t>qty as of 12/11/19</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -842,7 +842,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,6 +1433,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1440,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9AD7B-F263-A14F-B1B2-5A8DBADE0C7E}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2748,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,31 +2774,31 @@
         <v>81</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2809,13 +2810,13 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="7"/>
     </row>
@@ -2852,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2867,7 +2868,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2882,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2912,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>940</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2942,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2972,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3008,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3038,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>940</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3068,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>930</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3098,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3115,14 +3116,14 @@
         <v>129</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17">
         <f>K17-G17-$H$2*H17-I$2*I17-J$2*J17+F17</f>
         <v>6</v>
       </c>
       <c r="F17" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -3137,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3174,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3236,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3248,14 +3249,14 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F23" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -3270,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3307,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3341,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3375,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3390,10 +3391,10 @@
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6">
         <v>2</v>
@@ -3408,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3419,11 +3420,11 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -3441,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3457,7 +3458,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -3475,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3508,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3546,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3568,23 +3569,23 @@
         <f>K38-G38-$H$2*H38-I$2*I38-J$2*J38+F38</f>
         <v>15</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>15</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3602,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
@@ -3617,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3637,7 +3638,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -3655,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3673,7 +3674,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
@@ -3688,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3700,10 +3701,10 @@
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F44" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -3718,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3753,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3761,14 +3762,14 @@
         <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
         <v>189</v>
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -3785,8 +3786,8 @@
       <c r="J48">
         <v>2</v>
       </c>
-      <c r="K48">
-        <v>8</v>
+      <c r="K48" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3794,14 +3795,14 @@
         <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
         <v>192</v>
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
@@ -3819,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71DBC65-CE42-5842-B64D-82F95DB03369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD856154-2030-4941-B655-9EF53A156360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="TopBoard" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="215">
   <si>
     <t>Part</t>
   </si>
@@ -704,14 +706,29 @@
     <t>HobbyKing</t>
   </si>
   <si>
-    <t>qty as of 12/11/19</t>
+    <t>qty as of 1/23/20</t>
+  </si>
+  <si>
+    <t>PCBs</t>
+  </si>
+  <si>
+    <t>Feather-board</t>
+  </si>
+  <si>
+    <t>top board</t>
+  </si>
+  <si>
+    <t>Battery Connector</t>
+  </si>
+  <si>
+    <t>Last updated:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -767,16 +784,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -827,7 +842,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -842,7 +857,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1441,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9AD7B-F263-A14F-B1B2-5A8DBADE0C7E}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2133,7 +2149,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2747,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2993,8 +3009,8 @@
         <v>82</v>
       </c>
       <c r="E11">
-        <f>K11-G11-$H$2*H11-I$2*I11-J$2*J11+F11</f>
-        <v>106</v>
+        <f t="shared" ref="E11:E14" si="1">K11-G11-$H$2*H11-I$2*I11-J$2*J11+F11</f>
+        <v>104</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3009,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3020,7 +3036,7 @@
         <v>82</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E14" si="1">K12-G12-$H$2*H12-I$2*I12-J$2*J12+F12</f>
+        <f t="shared" si="1"/>
         <v>924</v>
       </c>
       <c r="F12" s="6">
@@ -3119,8 +3135,8 @@
         <v>203</v>
       </c>
       <c r="E17">
-        <f>K17-G17-$H$2*H17-I$2*I17-J$2*J17+F17</f>
-        <v>6</v>
+        <f t="shared" ref="E17:E50" si="2">K17-G17-$H$2*H17-I$2*I17-J$2*J17+F17</f>
+        <v>2</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3138,14 +3154,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -3156,8 +3171,8 @@
       </c>
       <c r="C20" s="3"/>
       <c r="E20">
-        <f>K20-G20-$H$2*H20-I$2*I20-J$2*J20+F20</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3175,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3187,8 +3202,8 @@
       </c>
       <c r="C21" s="3"/>
       <c r="E21">
-        <f t="shared" ref="E21:E23" si="2">K21-G21-$H$2*H21-I$2*I21-J$2*J21+F21</f>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -3206,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3219,7 +3234,7 @@
       <c r="C22" s="3"/>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -3237,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3253,7 +3268,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -3271,14 +3286,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3289,8 +3303,8 @@
       </c>
       <c r="C26" s="3"/>
       <c r="E26">
-        <f>K26-G26-$H$2*H26-I$2*I26-J$2*J26+F26</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -3308,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3323,8 +3337,8 @@
         <v>91</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E32" si="3">K27-G27-$H$2*H27-I$2*I27-J$2*J27+F27</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -3342,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3357,8 +3371,8 @@
         <v>92</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -3376,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3390,14 +3404,14 @@
         <v>152</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3423,8 +3437,8 @@
         <v>206</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -3442,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3457,8 +3471,8 @@
         <v>125</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -3476,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3490,8 +3504,8 @@
         <v>123</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -3509,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3528,8 +3542,8 @@
         <v>35</v>
       </c>
       <c r="E35">
-        <f>K35-G35-$H$2*H35-I$2*I35-J$2*J35+F35</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -3547,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3566,8 +3580,8 @@
         <v>103</v>
       </c>
       <c r="E38">
-        <f>K38-G38-$H$2*H38-I$2*I38-J$2*J38+F38</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -3585,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3599,8 +3613,8 @@
         <v>104</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E49" si="4">K39-G39-$H$2*H39-I$2*I39-J$2*J39+F39</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -3618,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3637,8 +3651,8 @@
         <v>109</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -3656,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3670,8 +3684,8 @@
         <v>111</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -3689,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3700,8 +3714,8 @@
         <v>137</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -3719,57 +3733,51 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="B48" t="s">
+        <v>186</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -3781,109 +3789,209 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>2</v>
-      </c>
-      <c r="K48" s="10">
-        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
         <v>208</v>
       </c>
       <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" t="s">
         <v>192</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>17</v>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E54" si="3">K53-G53-$H$2*H53-I$2*I53-J$2*J53+F53</f>
+        <v>3</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56">
-        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="E57">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>196</v>
-      </c>
-      <c r="D58" t="s">
-        <v>97</v>
+        <v>195</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>197</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
         <v>64</v>
       </c>
-      <c r="E59">
+      <c r="E61">
         <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="11">
+        <v>43853</v>
       </c>
     </row>
   </sheetData>

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD856154-2030-4941-B655-9EF53A156360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBBAB75-F130-6548-B24D-F586A919EC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="216">
   <si>
     <t>Part</t>
   </si>
@@ -700,9 +700,6 @@
     <t>﻿CP2102N</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>HobbyKing</t>
   </si>
   <si>
@@ -722,6 +719,12 @@
   </si>
   <si>
     <t>Last updated:</t>
+  </si>
+  <si>
+    <t>﻿MCP73831</t>
+  </si>
+  <si>
+    <t>Digi-Key Part number (or vendor)</t>
   </si>
 </sst>
 </file>
@@ -865,7 +868,18 @@
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2148,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB9D63C-6B1A-D341-8E32-18A078C7BF2C}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2390,6 +2404,9 @@
       <c r="C20" t="s">
         <v>129</v>
       </c>
+      <c r="D20" t="s">
+        <v>203</v>
+      </c>
       <c r="E20" t="s">
         <v>113</v>
       </c>
@@ -2480,7 +2497,7 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
         <v>113</v>
@@ -2765,14 +2782,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="7" width="21.83203125" customWidth="1"/>
@@ -2790,7 +2808,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>87</v>
@@ -2814,7 +2832,7 @@
         <v>200</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2826,10 +2844,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -2851,7 +2869,7 @@
       </c>
       <c r="E4">
         <f>K4-G4-$H$2*H4-I$2*I4-J$2*J4+F4</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2881,7 +2899,7 @@
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E8" si="0">K5-G5-$H$2*H5-I$2*I5-J$2*J5+F5</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2911,7 +2929,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -2941,7 +2959,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -2971,7 +2989,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -3010,7 +3028,7 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E14" si="1">K11-G11-$H$2*H11-I$2*I11-J$2*J11+F11</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3037,7 +3055,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3067,7 +3085,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3097,7 +3115,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3136,7 +3154,7 @@
       </c>
       <c r="E17">
         <f t="shared" ref="E17:E50" si="2">K17-G17-$H$2*H17-I$2*I17-J$2*J17+F17</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3172,7 +3190,7 @@
       <c r="C20" s="3"/>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3234,7 +3252,7 @@
       <c r="C22" s="3"/>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -3268,7 +3286,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -3304,7 +3322,7 @@
       <c r="C26" s="3"/>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -3338,7 +3356,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -3372,7 +3390,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -3438,7 +3456,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -3472,7 +3490,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -3505,7 +3523,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -3543,7 +3561,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -3581,7 +3599,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -3614,7 +3632,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -3652,7 +3670,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -3685,7 +3703,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -3715,7 +3733,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -3738,7 +3756,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
@@ -3777,7 +3795,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -3795,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3803,20 +3821,20 @@
         <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
         <v>189</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3836,20 +3854,20 @@
         <v>191</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
         <v>192</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" s="6">
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3866,16 +3884,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53">
         <f t="shared" ref="E53:E54" si="3">K53-G53-$H$2*H53-I$2*I53-J$2*J53+F53</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
@@ -3898,11 +3916,11 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>
@@ -3988,13 +4006,18 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="11">
         <v>43853</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(NOT(ISBLANK(E1)),E1&lt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBBAB75-F130-6548-B24D-F586A919EC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A2777-520D-8D47-B060-3385E49984AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="TopBoard" sheetId="5" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="217">
   <si>
     <t>Part</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>Digi-Key Part number (or vendor)</t>
+  </si>
+  <si>
+    <t>PDV-P9007-ND</t>
   </si>
 </sst>
 </file>
@@ -2162,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB9D63C-6B1A-D341-8E32-18A078C7BF2C}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2743,6 +2746,9 @@
       <c r="C50" t="s">
         <v>186</v>
       </c>
+      <c r="D50" t="s">
+        <v>216</v>
+      </c>
       <c r="E50" t="s">
         <v>117</v>
       </c>
@@ -2782,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D28EE-AF03-6F46-82F7-ED1679C381D3}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2844,10 +2850,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -2869,7 +2875,7 @@
       </c>
       <c r="E4">
         <f>K4-G4-$H$2*H4-I$2*I4-J$2*J4+F4</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2899,7 +2905,7 @@
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E8" si="0">K5-G5-$H$2*H5-I$2*I5-J$2*J5+F5</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2929,7 +2935,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -2959,7 +2965,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -2989,7 +2995,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -3028,7 +3034,7 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E14" si="1">K11-G11-$H$2*H11-I$2*I11-J$2*J11+F11</f>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3055,7 +3061,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3085,7 +3091,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3115,7 +3121,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3154,7 +3160,7 @@
       </c>
       <c r="E17">
         <f t="shared" ref="E17:E50" si="2">K17-G17-$H$2*H17-I$2*I17-J$2*J17+F17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3190,7 +3196,7 @@
       <c r="C20" s="3"/>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3252,7 +3258,7 @@
       <c r="C22" s="3"/>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -3286,7 +3292,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -3322,7 +3328,7 @@
       <c r="C26" s="3"/>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -3356,7 +3362,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -3390,7 +3396,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -3456,7 +3462,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -3490,7 +3496,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -3523,7 +3529,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -3561,7 +3567,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -3599,7 +3605,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -3632,7 +3638,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -3670,7 +3676,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -3703,7 +3709,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -3733,7 +3739,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -3795,7 +3801,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -3893,7 +3899,7 @@
       </c>
       <c r="E53">
         <f t="shared" ref="E53:E54" si="3">K53-G53-$H$2*H53-I$2*I53-J$2*J53+F53</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
@@ -3920,7 +3926,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>

--- a/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
+++ b/NU-Smarticle PCB Design/BOMs/Inventory-v2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/GitHub/NU-Smarticle/NU-Smarticle PCB Design/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A2777-520D-8D47-B060-3385E49984AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC6FBA8-C291-EB46-BB72-4377BF8F6732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
+    <workbookView xWindow="-38400" yWindow="-17280" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{D63DB3F0-E8B1-1F4E-9AB0-B5BC2EC9A6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="TopBoard" sheetId="5" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="236">
   <si>
     <t>Part</t>
   </si>
@@ -457,9 +457,6 @@
     <t>XB3-24ACM-J</t>
   </si>
   <si>
-    <t>‎SBR1A20T5-7</t>
-  </si>
-  <si>
     <t>Resonator</t>
   </si>
   <si>
@@ -616,9 +613,6 @@
     <t>ATMEGA 328PB</t>
   </si>
   <si>
-    <t>MOLEX_51281</t>
-  </si>
-  <si>
     <t>12pin FFC</t>
   </si>
   <si>
@@ -721,20 +715,83 @@
     <t>Last updated:</t>
   </si>
   <si>
-    <t>﻿MCP73831</t>
-  </si>
-  <si>
     <t>Digi-Key Part number (or vendor)</t>
   </si>
   <si>
     <t>PDV-P9007-ND</t>
+  </si>
+  <si>
+    <t>﻿AP2112K-3.3</t>
+  </si>
+  <si>
+    <t>ADXL337BCPZ-RL</t>
+  </si>
+  <si>
+    <t>﻿MCP73831T-2DCI/OT</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>Diodes, Inc.</t>
+  </si>
+  <si>
+    <t>SDM100K30L-7</t>
+  </si>
+  <si>
+    <t>Digi International</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>DMG3418L</t>
+  </si>
+  <si>
+    <t>Didoes Inc.</t>
+  </si>
+  <si>
+    <t>PCM12SMTR</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>KMR231NG LFS</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>98-MB05PMXX-01</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATmega328PB-MUR </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,6 +845,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -848,7 +911,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,6 +928,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1223,13 +1287,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,16 +1301,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1274,78 +1338,78 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
         <v>135</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
         <v>167</v>
       </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
         <v>167</v>
       </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
         <v>167</v>
       </c>
-      <c r="C10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>168</v>
-      </c>
-      <c r="E10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,7 +1420,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1373,7 +1437,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1390,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1401,13 +1465,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15">
         <v>0.1</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1421,13 +1485,13 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1435,21 +1499,21 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
         <v>173</v>
       </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>174</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -1461,7 +1525,7 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1495,13 +1559,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1512,13 +1576,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1529,13 +1593,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,13 +1610,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1563,13 +1627,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1580,13 +1644,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1597,13 +1661,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,13 +1678,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1628,16 +1692,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,16 +1709,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1665,13 +1729,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,16 +1743,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1699,13 +1763,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1716,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,13 +1797,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1750,13 +1814,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,7 +1831,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1784,7 +1848,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1801,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1818,7 +1882,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -1835,7 +1899,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1852,7 +1916,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1869,7 +1933,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1886,7 +1950,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1903,7 +1967,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1920,7 +1984,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -1931,16 +1995,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
         <v>136</v>
-      </c>
-      <c r="C29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1951,13 +2015,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1968,10 +2032,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1982,13 +2046,13 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1999,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2016,13 +2080,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2030,13 +2094,13 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2047,30 +2111,30 @@
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
         <v>151</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
         <v>152</v>
       </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>153</v>
-      </c>
-      <c r="E42" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2081,13 +2145,13 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
         <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2098,13 +2162,13 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2121,7 +2185,7 @@
         <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2132,13 +2196,13 @@
         <v>20329</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2146,10 +2210,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
         <v>68</v>
@@ -2163,20 +2227,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB9D63C-6B1A-D341-8E32-18A078C7BF2C}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="3" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2187,16 +2251,19 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -2204,9 +2271,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -2214,14 +2281,14 @@
       <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2231,11 +2298,11 @@
       <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2245,11 +2312,11 @@
       <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2259,11 +2326,11 @@
       <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2273,11 +2340,11 @@
       <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2287,11 +2354,11 @@
       <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2301,14 +2368,14 @@
       <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -2316,7 +2383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2326,11 +2393,11 @@
       <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -2340,11 +2407,11 @@
       <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2354,11 +2421,11 @@
       <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2368,11 +2435,11 @@
       <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -2382,39 +2449,42 @@
       <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>117</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>128</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>129</v>
-      </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -2422,7 +2492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2432,11 +2502,12 @@
       <c r="C23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="3"/>
+      <c r="F23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -2446,11 +2517,12 @@
       <c r="C24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="3"/>
+      <c r="F24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2458,16 +2530,19 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -2475,21 +2550,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="E28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -2499,14 +2580,17 @@
       <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" t="s">
-        <v>214</v>
+      <c r="D29" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="E29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2516,31 +2600,37 @@
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="s">
-        <v>92</v>
+      <c r="D30" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -2551,13 +2641,16 @@
         <v>96</v>
       </c>
       <c r="D32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" t="s">
         <v>94</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -2565,16 +2658,19 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" t="s">
         <v>125</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -2584,14 +2680,17 @@
       <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" t="s">
         <v>123</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
@@ -2599,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2610,13 +2709,16 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -2624,7 +2726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -2635,13 +2737,16 @@
         <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2652,13 +2757,16 @@
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2669,13 +2777,16 @@
         <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
@@ -2683,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -2694,15 +2805,18 @@
         <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2711,13 +2825,16 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" t="s">
         <v>111</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -2725,57 +2842,60 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47">
+        <v>512811294</v>
+      </c>
+      <c r="F47" t="s">
         <v>179</v>
       </c>
-      <c r="E47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>186</v>
-      </c>
-      <c r="D50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>188</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>189</v>
       </c>
-      <c r="E51" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2814,31 +2934,31 @@
         <v>81</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2898,7 +3018,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -3144,19 +3264,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
         <v>128</v>
       </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:E50" si="2">K17-G17-$H$2*H17-I$2*I17-J$2*J17+F17</f>
@@ -3284,11 +3404,11 @@
         <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
@@ -3320,7 +3440,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>89</v>
@@ -3419,13 +3539,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
@@ -3458,7 +3578,7 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
@@ -3488,7 +3608,7 @@
         <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" t="s">
@@ -3699,7 +3819,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
@@ -3735,7 +3855,7 @@
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
@@ -3762,7 +3882,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
@@ -3789,15 +3909,15 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
@@ -3824,13 +3944,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
@@ -3857,13 +3977,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
@@ -3890,12 +4010,12 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E53">
         <f t="shared" ref="E53:E54" si="3">K53-G53-$H$2*H53-I$2*I53-J$2*J53+F53</f>
@@ -3922,7 +4042,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
@@ -3949,12 +4069,12 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
@@ -3965,7 +4085,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
         <v>82</v>
@@ -3987,7 +4107,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
         <v>97</v>
@@ -3998,7 +4118,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
@@ -4012,7 +4132,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B66" s="11">
         <v>43853</v>
